--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.45200000000001</v>
+        <v>-21.654</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.706</v>
+        <v>-12.156</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.816</v>
+        <v>-11.671</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.83</v>
+        <v>-12.704</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.068</v>
+        <v>-21.785</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.316</v>
+        <v>-13.336</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.706</v>
+        <v>-21.654</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-21.937</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
